--- a/data/trans_dic/P36B13_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,19; 9,0</t>
+          <t>4,04; 8,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,95</t>
+          <t>3,26; 7,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 7,05</t>
+          <t>2,84; 7,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,2</t>
+          <t>1,42; 4,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 7,23</t>
+          <t>4,05; 7,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 5,25</t>
+          <t>2,68; 5,14</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,47; 12,53</t>
+          <t>6,47; 12,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 9,18</t>
+          <t>3,17; 9,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,77; 11,52</t>
+          <t>5,81; 11,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 7,83</t>
+          <t>3,22; 7,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,74; 10,94</t>
+          <t>6,82; 11,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,53</t>
+          <t>3,82; 7,37</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,1; 13,56</t>
+          <t>8,23; 13,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 76,32</t>
+          <t>5,69; 79,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 14,36</t>
+          <t>5,16; 14,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,78</t>
+          <t>0,78; 4,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,84; 12,84</t>
+          <t>8,14; 12,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 69,36</t>
+          <t>4,69; 71,92</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,53; 14,53</t>
+          <t>10,47; 14,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,17</t>
+          <t>6,81; 11,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,19; 13,52</t>
+          <t>9,17; 13,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,24</t>
+          <t>1,82; 5,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,54; 13,56</t>
+          <t>10,57; 13,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,27; 7,79</t>
+          <t>4,2; 7,74</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,21; 18,2</t>
+          <t>12,16; 17,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,63; 10,12</t>
+          <t>4,64; 9,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,5; 9,62</t>
+          <t>5,5; 9,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,81</t>
+          <t>1,74; 3,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,12; 12,62</t>
+          <t>9,24; 12,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,26</t>
+          <t>3,18; 5,61</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,47; 28,61</t>
+          <t>18,52; 28,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,9; 19,06</t>
+          <t>4,95; 18,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,01</t>
+          <t>5,09; 7,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,02</t>
+          <t>3,0; 6,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,5; 11,77</t>
+          <t>8,58; 11,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,23; 7,98</t>
+          <t>4,07; 8,07</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,33; 13,59</t>
+          <t>11,31; 13,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,84; 36,12</t>
+          <t>6,86; 33,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,98; 8,75</t>
+          <t>6,97; 8,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,79; 4,22</t>
+          <t>2,79; 4,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,35; 10,86</t>
+          <t>9,42; 10,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,93; 20,34</t>
+          <t>5,02; 23,93</t>
         </is>
       </c>
     </row>
@@ -1171,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume comida rápida al menos 3 veces por semana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>26185</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>24554</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15619</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11211</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>41803</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>35765</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>17245; 37372</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16487; 37766</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9781; 25643</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6352; 18719</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>31281; 55245</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>25499; 48881</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>34548</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25228</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>30457</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>19214</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>65005</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>44442</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>24137; 47200</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14339; 41813</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>21421; 41729</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>12260; 30383</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>50657; 81736</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>31828; 61417</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>55029</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>271822</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14987</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3910</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>70015</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>275732</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>42567; 71467</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>37856; 526396</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8526; 23831</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1304; 7427</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>55541; 88453</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>39047; 598721</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>142408</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>90960</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>92617</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>34632</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>235025</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>125592</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>119889; 164205</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>70472; 117359</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>75439; 112004</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>17759; 50275</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>208150; 264516</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>84415; 155648</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>92580</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>32016</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>54014</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>22244</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>146594</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>54260</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>74787; 110075</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>21997; 44684</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>40490; 69959</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>14650; 31933</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>124860; 172321</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>41753; 73747</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>67055</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>24716</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>68610</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>32657</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>135665</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>57373</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>53178; 80560</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>11916; 43590</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>54511; 84890</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>22770; 46988</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>116431; 159395</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>40670; 80639</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>417804</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>469296</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>276303</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>123866</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>694107</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>593162</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>380664; 458572</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>231189; 1129490</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>244615; 309351</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>99613; 149499</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>647453; 747914</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>348122; 1660662</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>